--- a/data_pic.xlsx
+++ b/data_pic.xlsx
@@ -5,27 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenbingnan/Desktop/plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenbingnan/Desktop/RewriterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE240C9F-AC4E-864C-A6E6-B697F783DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB091A2-8ED2-3246-AB45-C86CFF4F09E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="4260" windowWidth="36780" windowHeight="21800" xr2:uid="{5F651D40-3FAD-734E-9928-E75F4921EB0E}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="26920" windowHeight="15800" xr2:uid="{5F651D40-3FAD-734E-9928-E75F4921EB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$253:$J$253</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$254:$J$254</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$255:$J$255</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$E$253:$J$253</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$E$254:$J$254</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$E$255:$J$255</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$D$253</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$E$253:$J$253</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">Sheet1!$E$254:$J$254</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>Original Time</t>
   </si>
@@ -560,6 +549,22 @@
   </si>
   <si>
     <t>PK-&gt;FK; 1 short comp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 long comp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5503,7 +5508,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>TPC-H(s)</a:t>
+              <a:t>TPC-H-100G(worker=5)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -5571,9 +5576,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$247:$N$247</c:f>
+              <c:f>Sheet1!$B$247:$Q$247</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>q2</c:v>
                 </c:pt>
@@ -5605,23 +5610,32 @@
                   <c:v>q14</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>q15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>q16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>q17</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>q18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>q19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>q20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$248:$N$248</c:f>
+              <c:f>Sheet1!$B$248:$Q$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.38</c:v>
                 </c:pt>
@@ -5632,7 +5646,7 @@
                   <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.17</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.75</c:v>
@@ -5653,20 +5667,29 @@
                   <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>8.16</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>24.75</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF38-B042-933B-C2E867D01E87}"/>
+              <c16:uniqueId val="{00000000-B932-7442-BFF0-4F414A265516}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5696,9 +5719,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$247:$N$247</c:f>
+              <c:f>Sheet1!$B$247:$Q$247</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>q2</c:v>
                 </c:pt>
@@ -5730,23 +5753,32 @@
                   <c:v>q14</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>q15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>q16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>q17</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>q18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>q19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>q20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$249:$N$249</c:f>
+              <c:f>Sheet1!$B$249:$Q$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
@@ -5757,7 +5789,7 @@
                   <c:v>6.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.54</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.6</c:v>
@@ -5778,20 +5810,29 @@
                   <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6.49</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>32.29</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF38-B042-933B-C2E867D01E87}"/>
+              <c16:uniqueId val="{00000001-B932-7442-BFF0-4F414A265516}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5805,11 +5846,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384901648"/>
-        <c:axId val="384903376"/>
+        <c:axId val="1855276896"/>
+        <c:axId val="1855211136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384901648"/>
+        <c:axId val="1855276896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5852,7 +5893,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384903376"/>
+        <c:crossAx val="1855211136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5860,7 +5901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384903376"/>
+        <c:axId val="1855211136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5911,7 +5952,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384901648"/>
+        <c:crossAx val="1855276896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6094,22 +6135,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$253,Sheet1!$G$253:$J$253)</c:f>
+              <c:f>Sheet1!$B$253:$J$253</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>q4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>q6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>q7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>q8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>q9</c:v>
                 </c:pt>
               </c:strCache>
@@ -6117,19 +6170,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$254,Sheet1!$G$254:$J$254)</c:f>
+              <c:f>Sheet1!$B$254:$J$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.39</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1264.8699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55B7-7641-8D4D-1874C9CCA4D9}"/>
+              <c16:uniqueId val="{00000000-3FA1-BB48-9BAB-65C76F04FCA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6159,22 +6236,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$253,Sheet1!$G$253:$J$253)</c:f>
+              <c:f>Sheet1!$B$253:$J$253</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>q4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>q6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>q7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>q8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>q9</c:v>
                 </c:pt>
               </c:strCache>
@@ -6182,19 +6271,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$255,Sheet1!$G$255:$J$255)</c:f>
+              <c:f>Sheet1!$B$255:$J$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.87</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-55B7-7641-8D4D-1874C9CCA4D9}"/>
+              <c16:uniqueId val="{00000001-3FA1-BB48-9BAB-65C76F04FCA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6208,11 +6318,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="771632879"/>
-        <c:axId val="1052678111"/>
+        <c:axId val="1855876272"/>
+        <c:axId val="1718332863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="771632879"/>
+        <c:axId val="1855876272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,7 +6365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1052678111"/>
+        <c:crossAx val="1718332863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6263,8 +6373,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1052678111"/>
+        <c:axId val="1718332863"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6314,7 +6425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771632879"/>
+        <c:crossAx val="1855876272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25313,15 +25424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1472191</xdr:colOff>
-      <xdr:row>272</xdr:row>
-      <xdr:rowOff>19893</xdr:rowOff>
+      <xdr:colOff>1121363</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>97075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1342438</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>121881</xdr:rowOff>
+      <xdr:colOff>991610</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>199064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25348,23 +25459,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>309880</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>670048</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>115317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132080</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683379</xdr:colOff>
       <xdr:row>245</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>13717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="21" name="图表 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E30AB1-7A84-4B56-13E4-6A57C317E2A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8353C3A8-6DE2-A22F-6394-A2D676B431DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25384,23 +25495,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1423732</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>89217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1341120</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1342552</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>190816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10">
+        <xdr:cNvPr id="22" name="图表 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154D62A3-2136-A244-1D8A-E5FD197A1E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB40770-709A-133A-F636-55BD84676990}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25720,8 +25831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B807137-4F66-A747-A80B-6AF4D5CE412D}">
   <dimension ref="A1:Q303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F274" sqref="F274"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25740,6 +25851,8 @@
     <col min="12" max="12" width="18.83203125" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -28357,9 +28470,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="N235" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="N235" s="4"/>
     </row>
     <row r="241" spans="1:17">
       <c r="L241" s="4"/>
@@ -28403,13 +28514,22 @@
         <v>108</v>
       </c>
       <c r="L247" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N247" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M247" s="4" t="s">
+      <c r="O247" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N247" s="4" t="s">
+      <c r="P247" s="4" t="s">
         <v>91</v>
+      </c>
+      <c r="Q247" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -28426,7 +28546,7 @@
         <v>6.3</v>
       </c>
       <c r="E248">
-        <v>6.17</v>
+        <v>5.93</v>
       </c>
       <c r="F248">
         <v>4.75</v>
@@ -28447,13 +28567,22 @@
         <v>1.58</v>
       </c>
       <c r="L248">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M248">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N248">
         <v>8.16</v>
       </c>
-      <c r="M248">
+      <c r="O248">
         <v>24.75</v>
       </c>
-      <c r="N248">
+      <c r="P248">
         <v>4.99</v>
+      </c>
+      <c r="Q248">
+        <v>4.03</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -28469,8 +28598,8 @@
       <c r="D249" s="3">
         <v>6.24</v>
       </c>
-      <c r="E249" s="3">
-        <v>15.54</v>
+      <c r="E249">
+        <v>12.72</v>
       </c>
       <c r="F249">
         <v>5.6</v>
@@ -28491,21 +28620,33 @@
         <v>1.66</v>
       </c>
       <c r="L249" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="M249" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N249" s="3">
         <v>6.49</v>
       </c>
-      <c r="M249">
+      <c r="O249">
         <v>32.29</v>
       </c>
-      <c r="N249">
+      <c r="P249">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O249" s="4"/>
-      <c r="P249" s="4"/>
-      <c r="Q249" s="3"/>
+      <c r="Q249" s="3">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="250" spans="1:17">
+      <c r="B250" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
+      <c r="Q250" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="251" spans="1:17">
       <c r="O251" s="9"/>
@@ -28550,11 +28691,32 @@
       <c r="A254" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="B254">
+        <v>13.39</v>
+      </c>
+      <c r="C254">
+        <v>1.38</v>
+      </c>
+      <c r="D254">
+        <v>5.48</v>
+      </c>
+      <c r="E254">
+        <v>7.08</v>
+      </c>
       <c r="F254">
         <v>10.39</v>
       </c>
       <c r="G254">
         <v>16.71</v>
+      </c>
+      <c r="H254">
+        <v>7.01</v>
+      </c>
+      <c r="I254">
+        <v>7824</v>
+      </c>
+      <c r="J254">
+        <v>1264.8699999999999</v>
       </c>
       <c r="O254" s="9"/>
     </row>
@@ -28562,13 +28724,29 @@
       <c r="A255" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="B255" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="C255">
+        <v>1.3</v>
+      </c>
+      <c r="E255">
+        <v>4.08</v>
+      </c>
       <c r="F255">
         <v>10.1</v>
       </c>
       <c r="G255">
         <v>2.31</v>
+      </c>
+      <c r="H255">
+        <v>3.6</v>
+      </c>
+      <c r="I255">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J255">
+        <v>1.69</v>
       </c>
       <c r="O255" s="4"/>
     </row>
@@ -28577,8 +28755,7 @@
       <c r="B256" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4" t="s">
+      <c r="C256" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E256" s="4"/>
@@ -28588,8 +28765,12 @@
       <c r="G256" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
+      <c r="I256" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="O256" s="4"/>
     </row>
     <row r="257" spans="1:10">

--- a/data_pic.xlsx
+++ b/data_pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenbingnan/Desktop/RewriterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB091A2-8ED2-3246-AB45-C86CFF4F09E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A903C-2EF3-BE47-9EC2-AC607FEF365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="26920" windowHeight="15800" xr2:uid="{5F651D40-3FAD-734E-9928-E75F4921EB0E}"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="39920" windowHeight="22560" xr2:uid="{5F651D40-3FAD-734E-9928-E75F4921EB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4872,6 +4872,7 @@
         <c:axId val="162585567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -25831,8 +25832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B807137-4F66-A747-A80B-6AF4D5CE412D}">
   <dimension ref="A1:Q303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
